--- a/TestCase_3 Merkulov.xlsx
+++ b/TestCase_3 Merkulov.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sipuha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sipuha\Documents\GitHub\ProjectTMP_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498B7950-9972-4E14-89B1-7AA151F65DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C73DE-FB6A-4389-9703-BD91EC63A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED170CA5-CD61-41F1-AB0E-D4B67A14FCFA}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t xml:space="preserve"> Появилось окно с заданием на метод градиентного спуска</t>
   </si>
   <si>
-    <t>нажать на кнопку "Answer" в "Task1 Gradientniy spusk"</t>
-  </si>
-  <si>
     <t>нажать на кнопку "Result"</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>В таблице появились данные</t>
+  </si>
+  <si>
+    <t>нажать на кнопку "Answer" в "Task2 Gradientniy spusk"</t>
   </si>
 </sst>
 </file>
@@ -642,15 +642,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,9 +655,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -741,6 +729,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,41 +1112,41 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
@@ -1154,257 +1154,257 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="16">
         <v>45812</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="H7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="24">
         <v>123</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="H9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+      <c r="A11" s="25">
         <f>COUNTA(A13:A28)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="28">
         <f t="shared" ref="D11:F11" si="0">COUNTIF(D13:D28,"x")</f>
         <v>6</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="30">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="36">
         <v>1</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="43" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <f t="shared" ref="A14:A18" si="1">A13 + 1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="48"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="48"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="D17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+      <c r="A18" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="D18" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestCase_3 Merkulov.xlsx
+++ b/TestCase_3 Merkulov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sipuha\Documents\GitHub\ProjectTMP_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C73DE-FB6A-4389-9703-BD91EC63A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8E295-E9CF-43B5-9AA8-CE9E22942EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED170CA5-CD61-41F1-AB0E-D4B67A14FCFA}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Должно появится окно с таблицей результатов</t>
   </si>
   <si>
-    <t>Появляется окно с таблицей результатов</t>
-  </si>
-  <si>
     <t>нажать на кнопку "Refresh" в "Result"</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>нажать на кнопку "Answer" в "Task2 Gradientniy spusk"</t>
+  </si>
+  <si>
+    <t>Появляется окно с таблицей результатов, но оно пустое. Появляются данные только после нажатия на кнопку "Refresh"</t>
   </si>
 </sst>
 </file>
@@ -757,6 +757,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642732</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A3CD2E-02E9-1E30-10B4-F073E207FB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23752" t="8479" r="12144" b="18697"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19878" y="6758609"/>
+          <a:ext cx="4989445" cy="3226904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBFFB67-6DB9-44B3-98D2-39C626F0B5B9}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,11 +1291,11 @@
       </c>
       <c r="D11" s="28">
         <f t="shared" ref="D11:F11" si="0">COUNTIF(D13:D28,"x")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
@@ -1349,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>34</v>
@@ -1364,7 +1418,7 @@
       </c>
       <c r="H16" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1375,15 +1429,17 @@
       <c r="C17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="H17" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
@@ -1391,10 +1447,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>31</v>
@@ -1402,7 +1458,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="42"/>
     </row>
@@ -1413,5 +1469,6 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase_3 Merkulov.xlsx
+++ b/TestCase_3 Merkulov.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sipuha\Documents\GitHub\ProjectTMP_2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8E295-E9CF-43B5-9AA8-CE9E22942EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED170CA5-CD61-41F1-AB0E-D4B67A14FCFA}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase_3_Меркулов" sheetId="1" r:id="rId1"/>
+    <sheet name="Дефект" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Наименование:</t>
   </si>
@@ -68,7 +60,7 @@
     <t>Тестировщик:</t>
   </si>
   <si>
-    <t>Меркулов Григорий</t>
+    <t>Меркулов Григорий Сергеевич</t>
   </si>
   <si>
     <t>Дата:</t>
@@ -155,12 +147,18 @@
     <t xml:space="preserve"> Появилось окно с заданием на метод градиентного спуска</t>
   </si>
   <si>
+    <t>нажать на кнопку "Answer" в "Task2 Gradientniy spusk"</t>
+  </si>
+  <si>
     <t>нажать на кнопку "Result"</t>
   </si>
   <si>
     <t>Должно появится окно с таблицей результатов</t>
   </si>
   <si>
+    <t>Появляется окно с таблицей результатов, но оно пустое. Появляются данные только после нажатия на кнопку "Refresh"</t>
+  </si>
+  <si>
     <t>нажать на кнопку "Refresh" в "Result"</t>
   </si>
   <si>
@@ -170,76 +168,346 @@
     <t>В таблице появились данные</t>
   </si>
   <si>
-    <t>нажать на кнопку "Answer" в "Task2 Gradientniy spusk"</t>
-  </si>
-  <si>
-    <t>Появляется окно с таблицей результатов, но оно пустое. Появляются данные только после нажатия на кнопку "Refresh"</t>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Таблица результатов не отображает данные без нажатия кнопки "Refresh"</t>
+  </si>
+  <si>
+    <t>№ тест-кейса</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Проект по дисциплине: "Технологии и методы программирования"</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Таблица результатов</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Номер версии</t>
+  </si>
+  <si>
+    <t>Важность:</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Приоритет:</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Назначен на</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>При выполнении шага 5 тест-кейса (нажать на кнопку "Refresh") обнаружена проблема: Появляется окно с таблицей результатов, но оно пустое. Появляются данные только после нажатия на кнопку "Refresh". 
+Шаги для воспроизведения:
+Запустить приложение. 
+Ввести логин user и пароль 123.
+Нажать кнопку "Registration".
+Нажать кнопку "Change".
+Нажать кнопку "Login".
+Нажать кнопку "Result".
+Фактический результат: Таблица отображается пустой. Данные появляются только после ручного обновления через кнопку "Refresh".
+Ожидаемый результат:
+Таблица с результатами должна отображаться сразу после открытия окна, без необходимости дополнительных действий от пользователя.
+Влияние:
+Дефект снижает удобство использования и нарушает accessibility-требования.</t>
+  </si>
+  <si>
+    <t>Вложения</t>
+  </si>
+  <si>
+    <t>screen_defect3.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,8 +515,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -260,52 +714,26 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -314,6 +742,194 @@
       <left/>
       <right/>
       <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -616,179 +1232,519 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{07512528-B956-4C6B-A5BE-C3C7548FDA82}"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>642732</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>72887</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2113280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A3CD2E-02E9-1E30-10B4-F073E207FB41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -796,12 +1752,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect l="23752" t="8479" r="12144" b="18697"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19878" y="6758609"/>
-          <a:ext cx="4989445" cy="3226904"/>
+          <a:off x="635" y="10518775"/>
+          <a:ext cx="5465445" cy="3148965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,7 +1814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -889,26 +1847,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -941,23 +1882,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1119,348 +2043,345 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBFFB67-6DB9-44B3-98D2-39C626F0B5B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.2166666666667" customWidth="1"/>
+    <col min="3" max="3" width="34.3333333333333" customWidth="1"/>
+    <col min="4" max="5" width="3.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" ht="15" spans="1:8">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="39">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40"/>
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="42">
         <v>45812</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" ht="15" spans="1:8">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="40"/>
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="23" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="43"/>
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="D7" s="50"/>
+      <c r="H7" s="44"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="D8" s="45"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="50">
         <v>123</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+      <c r="D9" s="45"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" ht="15" spans="1:8">
+      <c r="A11" s="51">
         <f>COUNTA(A13:A28)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="54">
         <f t="shared" ref="D11:F11" si="0">COUNTIF(D13:D28,"x")</f>
         <v>5</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="56">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+    <row r="12" ht="24.05" spans="1:8">
+      <c r="A12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+    <row r="13" ht="45" spans="1:8">
+      <c r="A13" s="62">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
-        <f t="shared" ref="A14:A18" si="1">A13 + 1</f>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" ht="60" spans="1:8">
+      <c r="A14" s="66">
+        <f t="shared" ref="A14:A18" si="1">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="37" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" ht="45" spans="1:8">
+      <c r="A15" s="66">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" ht="60" spans="1:8">
+      <c r="A16" s="66">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="37" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" ht="90" spans="1:8">
+      <c r="A17" s="66">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="F17" s="64"/>
+      <c r="G17" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="65">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+    <row r="18" ht="30" spans="1:8">
+      <c r="A18" s="66">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="38" t="s">
+      <c r="B18" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="42"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1469,6 +2390,281 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" ht="16" customHeight="1" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="B12:D27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>